--- a/Data/EC/NIT-9000092722.xlsx
+++ b/Data/EC/NIT-9000092722.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98D686CA-214E-4F4F-854E-C61CFC5A298C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7ADBDBB-20C0-4F1A-9C47-FAE204936D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EE2CED3C-42AA-4C3E-ACB7-30379D8A2E35}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C2652A48-E404-49BD-A0BE-7EB2D5630B4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="133">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,340 +65,343 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1066083605</t>
+  </si>
+  <si>
+    <t>HUBERNEL PEDROZO VEGA</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
     <t>93366735</t>
   </si>
   <si>
     <t>WILLIAM CUBIDES ZEA</t>
   </si>
   <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1066083605</t>
-  </si>
-  <si>
-    <t>HUBERNEL PEDROZO VEGA</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
   </si>
   <si>
     <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -812,7 +815,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BAA05DA-B301-DCE3-79F0-76C987C75619}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17C32A33-0FE2-E589-100A-538DC68A58CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1163,8 +1166,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EB635E-AABB-4E99-B47F-1C33354AFE10}">
-  <dimension ref="B2:J136"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA49FD2-3161-4DAC-B682-35C62C190FB3}">
+  <dimension ref="B2:J137"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1188,7 +1191,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1233,7 +1236,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1265,12 +1268,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>7794400</v>
+        <v>7863200</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1281,17 +1284,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F13" s="5">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1318,13 +1321,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>126</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1341,10 +1344,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>68800</v>
+        <v>52000</v>
       </c>
       <c r="G16" s="18">
-        <v>1720000</v>
+        <v>906667</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1355,13 +1358,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>52000</v>
@@ -1378,13 +1381,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>52000</v>
@@ -1410,10 +1413,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>68800</v>
+        <v>52000</v>
       </c>
       <c r="G19" s="18">
-        <v>1720000</v>
+        <v>906667</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1424,10 +1427,10 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>15</v>
@@ -1453,13 +1456,13 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>68800</v>
+        <v>52000</v>
       </c>
       <c r="G21" s="18">
-        <v>1720000</v>
+        <v>906667</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1476,13 +1479,13 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>68800</v>
+        <v>52000</v>
       </c>
       <c r="G22" s="18">
-        <v>1720000</v>
+        <v>906667</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1493,19 +1496,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>52000</v>
+        <v>68800</v>
       </c>
       <c r="G23" s="18">
-        <v>906667</v>
+        <v>1720000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1516,13 +1519,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>68800</v>
@@ -1539,19 +1542,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
-        <v>52000</v>
+        <v>68800</v>
       </c>
       <c r="G25" s="18">
-        <v>906667</v>
+        <v>1720000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1562,13 +1565,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>68800</v>
@@ -1585,19 +1588,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
-        <v>52000</v>
+        <v>68800</v>
       </c>
       <c r="G27" s="18">
-        <v>906667</v>
+        <v>1720000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1608,13 +1611,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>68800</v>
@@ -1631,19 +1634,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
-        <v>52000</v>
+        <v>68800</v>
       </c>
       <c r="G29" s="18">
-        <v>906667</v>
+        <v>1720000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1654,13 +1657,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
         <v>68800</v>
@@ -1677,13 +1680,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
         <v>68800</v>
@@ -1700,13 +1703,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
         <v>68800</v>
@@ -1723,13 +1726,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
         <v>68800</v>
@@ -1746,13 +1749,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
         <v>68800</v>
@@ -1769,13 +1772,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
         <v>68800</v>
@@ -1792,13 +1795,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
         <v>68800</v>
@@ -1815,13 +1818,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
         <v>68800</v>
@@ -1838,13 +1841,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F38" s="18">
         <v>68800</v>
@@ -1861,13 +1864,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F39" s="18">
         <v>68800</v>
@@ -1884,13 +1887,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F40" s="18">
         <v>68800</v>
@@ -1907,13 +1910,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F41" s="18">
         <v>68800</v>
@@ -1930,13 +1933,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F42" s="18">
         <v>68800</v>
@@ -1953,13 +1956,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F43" s="18">
         <v>68800</v>
@@ -1976,13 +1979,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F44" s="18">
         <v>68800</v>
@@ -1999,13 +2002,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F45" s="18">
         <v>68800</v>
@@ -2022,13 +2025,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F46" s="18">
         <v>68800</v>
@@ -2045,13 +2048,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F47" s="18">
         <v>68800</v>
@@ -2068,13 +2071,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F48" s="18">
         <v>68800</v>
@@ -2091,13 +2094,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F49" s="18">
         <v>68800</v>
@@ -2114,13 +2117,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F50" s="18">
         <v>68800</v>
@@ -2137,13 +2140,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F51" s="18">
         <v>68800</v>
@@ -2160,13 +2163,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F52" s="18">
         <v>68800</v>
@@ -2183,13 +2186,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F53" s="18">
         <v>68800</v>
@@ -2206,13 +2209,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F54" s="18">
         <v>68800</v>
@@ -2229,13 +2232,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F55" s="18">
         <v>68800</v>
@@ -2252,13 +2255,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F56" s="18">
         <v>68800</v>
@@ -2275,13 +2278,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F57" s="18">
         <v>68800</v>
@@ -2298,13 +2301,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F58" s="18">
         <v>68800</v>
@@ -2321,13 +2324,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F59" s="18">
         <v>68800</v>
@@ -2344,13 +2347,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F60" s="18">
         <v>68800</v>
@@ -2367,13 +2370,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F61" s="18">
         <v>68800</v>
@@ -2390,13 +2393,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F62" s="18">
         <v>68800</v>
@@ -2413,13 +2416,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F63" s="18">
         <v>68800</v>
@@ -2436,13 +2439,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F64" s="18">
         <v>68800</v>
@@ -2459,13 +2462,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F65" s="18">
         <v>68800</v>
@@ -2482,13 +2485,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F66" s="18">
         <v>68800</v>
@@ -2505,13 +2508,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F67" s="18">
         <v>68800</v>
@@ -2528,13 +2531,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F68" s="18">
         <v>68800</v>
@@ -2551,13 +2554,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F69" s="18">
         <v>68800</v>
@@ -2574,13 +2577,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F70" s="18">
         <v>68800</v>
@@ -2597,13 +2600,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F71" s="18">
         <v>68800</v>
@@ -2620,13 +2623,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F72" s="18">
         <v>68800</v>
@@ -2643,13 +2646,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F73" s="18">
         <v>68800</v>
@@ -2666,13 +2669,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F74" s="18">
         <v>68800</v>
@@ -2689,13 +2692,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F75" s="18">
         <v>68800</v>
@@ -2712,13 +2715,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F76" s="18">
         <v>68800</v>
@@ -2735,13 +2738,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F77" s="18">
         <v>68800</v>
@@ -2758,13 +2761,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F78" s="18">
         <v>68800</v>
@@ -2781,13 +2784,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F79" s="18">
         <v>68800</v>
@@ -2804,13 +2807,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F80" s="18">
         <v>68800</v>
@@ -2827,13 +2830,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F81" s="18">
         <v>68800</v>
@@ -2850,13 +2853,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F82" s="18">
         <v>68800</v>
@@ -2873,13 +2876,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F83" s="18">
         <v>68800</v>
@@ -2896,13 +2899,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F84" s="18">
         <v>68800</v>
@@ -2919,13 +2922,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F85" s="18">
         <v>68800</v>
@@ -2942,13 +2945,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F86" s="18">
         <v>68800</v>
@@ -2965,13 +2968,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F87" s="18">
         <v>68800</v>
@@ -2988,13 +2991,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F88" s="18">
         <v>68800</v>
@@ -3011,13 +3014,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F89" s="18">
         <v>68800</v>
@@ -3034,13 +3037,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F90" s="18">
         <v>68800</v>
@@ -3057,13 +3060,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F91" s="18">
         <v>68800</v>
@@ -3080,13 +3083,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F92" s="18">
         <v>68800</v>
@@ -3103,13 +3106,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F93" s="18">
         <v>68800</v>
@@ -3126,13 +3129,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F94" s="18">
         <v>68800</v>
@@ -3149,13 +3152,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F95" s="18">
         <v>68800</v>
@@ -3172,13 +3175,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F96" s="18">
         <v>68800</v>
@@ -3195,13 +3198,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F97" s="18">
         <v>68800</v>
@@ -3218,13 +3221,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F98" s="18">
         <v>68800</v>
@@ -3241,13 +3244,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F99" s="18">
         <v>68800</v>
@@ -3264,13 +3267,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F100" s="18">
         <v>68800</v>
@@ -3287,13 +3290,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F101" s="18">
         <v>68800</v>
@@ -3310,13 +3313,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F102" s="18">
         <v>68800</v>
@@ -3333,13 +3336,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F103" s="18">
         <v>68800</v>
@@ -3356,13 +3359,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F104" s="18">
         <v>68800</v>
@@ -3379,13 +3382,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F105" s="18">
         <v>68800</v>
@@ -3402,13 +3405,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F106" s="18">
         <v>68800</v>
@@ -3425,13 +3428,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F107" s="18">
         <v>68800</v>
@@ -3448,13 +3451,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F108" s="18">
         <v>68800</v>
@@ -3471,13 +3474,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F109" s="18">
         <v>68800</v>
@@ -3494,13 +3497,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F110" s="18">
         <v>68800</v>
@@ -3517,13 +3520,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F111" s="18">
         <v>68800</v>
@@ -3540,13 +3543,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F112" s="18">
         <v>68800</v>
@@ -3563,13 +3566,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F113" s="18">
         <v>68800</v>
@@ -3586,13 +3589,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F114" s="18">
         <v>68800</v>
@@ -3609,13 +3612,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F115" s="18">
         <v>68800</v>
@@ -3632,13 +3635,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F116" s="18">
         <v>68800</v>
@@ -3655,13 +3658,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F117" s="18">
         <v>68800</v>
@@ -3678,13 +3681,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F118" s="18">
         <v>68800</v>
@@ -3701,13 +3704,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F119" s="18">
         <v>68800</v>
@@ -3724,13 +3727,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F120" s="18">
         <v>68800</v>
@@ -3747,13 +3750,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F121" s="18">
         <v>68800</v>
@@ -3770,13 +3773,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F122" s="18">
         <v>68800</v>
@@ -3793,13 +3796,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F123" s="18">
         <v>68800</v>
@@ -3816,13 +3819,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F124" s="18">
         <v>68800</v>
@@ -3839,13 +3842,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="F125" s="18">
         <v>68800</v>
@@ -3862,13 +3865,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="F126" s="18">
         <v>68800</v>
@@ -3885,13 +3888,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="F127" s="18">
         <v>68800</v>
@@ -3908,13 +3911,13 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="F128" s="18">
         <v>68800</v>
@@ -3931,13 +3934,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="F129" s="18">
         <v>68800</v>
@@ -3950,42 +3953,54 @@
       <c r="J129" s="20"/>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B130" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E130" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="F130" s="24">
-        <v>68800</v>
-      </c>
-      <c r="G130" s="24">
-        <v>1720000</v>
-      </c>
-      <c r="H130" s="25"/>
-      <c r="I130" s="25"/>
-      <c r="J130" s="26"/>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B135" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="C135" s="32"/>
-      <c r="H135" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
+      <c r="B130" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D130" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F130" s="18">
+        <v>68800</v>
+      </c>
+      <c r="G130" s="18">
+        <v>1720000</v>
+      </c>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="20"/>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B131" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F131" s="24">
+        <v>68800</v>
+      </c>
+      <c r="G131" s="24">
+        <v>1720000</v>
+      </c>
+      <c r="H131" s="25"/>
+      <c r="I131" s="25"/>
+      <c r="J131" s="26"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B136" s="32" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C136" s="32"/>
       <c r="H136" s="1" t="s">
@@ -3994,12 +4009,23 @@
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
     </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B137" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C137" s="32"/>
+      <c r="H137" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B137:C137"/>
     <mergeCell ref="B136:C136"/>
-    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="H137:J137"/>
     <mergeCell ref="H136:J136"/>
-    <mergeCell ref="H135:J135"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9000092722.xlsx
+++ b/Data/EC/NIT-9000092722.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7ADBDBB-20C0-4F1A-9C47-FAE204936D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E54F110-E288-42A3-A3E5-0869A2E49126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C2652A48-E404-49BD-A0BE-7EB2D5630B4A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{484B44B5-E937-464F-9FEB-F2C020A18FA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="134">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,337 +71,340 @@
     <t>HUBERNEL PEDROZO VEGA</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>93366735</t>
+  </si>
+  <si>
+    <t>WILLIAM CUBIDES ZEA</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
     <t>1701</t>
   </si>
   <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>93366735</t>
-  </si>
-  <si>
-    <t>WILLIAM CUBIDES ZEA</t>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -500,7 +503,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -513,9 +518,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -715,23 +718,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -759,10 +762,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -815,7 +818,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17C32A33-0FE2-E589-100A-538DC68A58CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC996CDC-7003-8518-87F0-CC335E1A9687}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1166,8 +1169,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA49FD2-3161-4DAC-B682-35C62C190FB3}">
-  <dimension ref="B2:J137"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2C650D-0B51-4096-9179-1CA595D33EC4}">
+  <dimension ref="B2:J138"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1191,7 +1194,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1236,7 +1239,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1268,12 +1271,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>7863200</v>
+        <v>7932000</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1284,17 +1287,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F13" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1321,13 +1324,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>127</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1347,7 +1350,7 @@
         <v>52000</v>
       </c>
       <c r="G16" s="18">
-        <v>906667</v>
+        <v>2179035</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1358,19 +1361,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>52000</v>
+        <v>68800</v>
       </c>
       <c r="G17" s="18">
-        <v>906667</v>
+        <v>1720000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1387,13 +1390,13 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>52000</v>
       </c>
       <c r="G18" s="18">
-        <v>906667</v>
+        <v>2179035</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1404,19 +1407,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>52000</v>
+        <v>68800</v>
       </c>
       <c r="G19" s="18">
-        <v>906667</v>
+        <v>1720000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1439,7 +1442,7 @@
         <v>52000</v>
       </c>
       <c r="G20" s="18">
-        <v>906667</v>
+        <v>2179035</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1450,19 +1453,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
-        <v>52000</v>
+        <v>68800</v>
       </c>
       <c r="G21" s="18">
-        <v>906667</v>
+        <v>1720000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1479,13 +1482,13 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>52000</v>
       </c>
       <c r="G22" s="18">
-        <v>906667</v>
+        <v>2179035</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1496,13 +1499,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
         <v>68800</v>
@@ -1519,19 +1522,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
-        <v>68800</v>
+        <v>52000</v>
       </c>
       <c r="G24" s="18">
-        <v>1720000</v>
+        <v>2179035</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1542,13 +1545,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
         <v>68800</v>
@@ -1565,19 +1568,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F26" s="18">
-        <v>68800</v>
+        <v>52000</v>
       </c>
       <c r="G26" s="18">
-        <v>1720000</v>
+        <v>2179035</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1588,13 +1591,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F27" s="18">
         <v>68800</v>
@@ -1611,19 +1614,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F28" s="18">
-        <v>68800</v>
+        <v>52000</v>
       </c>
       <c r="G28" s="18">
-        <v>1720000</v>
+        <v>2179035</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1634,13 +1637,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F29" s="18">
         <v>68800</v>
@@ -1657,13 +1660,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
         <v>68800</v>
@@ -1680,13 +1683,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F31" s="18">
         <v>68800</v>
@@ -1703,13 +1706,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F32" s="18">
         <v>68800</v>
@@ -1726,13 +1729,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F33" s="18">
         <v>68800</v>
@@ -1749,13 +1752,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F34" s="18">
         <v>68800</v>
@@ -1772,13 +1775,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F35" s="18">
         <v>68800</v>
@@ -1795,13 +1798,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F36" s="18">
         <v>68800</v>
@@ -1818,13 +1821,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F37" s="18">
         <v>68800</v>
@@ -1841,13 +1844,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F38" s="18">
         <v>68800</v>
@@ -1864,13 +1867,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F39" s="18">
         <v>68800</v>
@@ -1887,13 +1890,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F40" s="18">
         <v>68800</v>
@@ -1910,13 +1913,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F41" s="18">
         <v>68800</v>
@@ -1933,13 +1936,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F42" s="18">
         <v>68800</v>
@@ -1956,13 +1959,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F43" s="18">
         <v>68800</v>
@@ -1979,13 +1982,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F44" s="18">
         <v>68800</v>
@@ -2002,13 +2005,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F45" s="18">
         <v>68800</v>
@@ -2025,13 +2028,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F46" s="18">
         <v>68800</v>
@@ -2048,13 +2051,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F47" s="18">
         <v>68800</v>
@@ -2071,13 +2074,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F48" s="18">
         <v>68800</v>
@@ -2094,13 +2097,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F49" s="18">
         <v>68800</v>
@@ -2117,13 +2120,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F50" s="18">
         <v>68800</v>
@@ -2140,13 +2143,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F51" s="18">
         <v>68800</v>
@@ -2163,13 +2166,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F52" s="18">
         <v>68800</v>
@@ -2186,13 +2189,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F53" s="18">
         <v>68800</v>
@@ -2209,13 +2212,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F54" s="18">
         <v>68800</v>
@@ -2232,13 +2235,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F55" s="18">
         <v>68800</v>
@@ -2255,13 +2258,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F56" s="18">
         <v>68800</v>
@@ -2278,13 +2281,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F57" s="18">
         <v>68800</v>
@@ -2301,13 +2304,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F58" s="18">
         <v>68800</v>
@@ -2324,13 +2327,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F59" s="18">
         <v>68800</v>
@@ -2347,13 +2350,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F60" s="18">
         <v>68800</v>
@@ -2370,13 +2373,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F61" s="18">
         <v>68800</v>
@@ -2393,13 +2396,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F62" s="18">
         <v>68800</v>
@@ -2416,13 +2419,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F63" s="18">
         <v>68800</v>
@@ -2439,13 +2442,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F64" s="18">
         <v>68800</v>
@@ -2462,13 +2465,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F65" s="18">
         <v>68800</v>
@@ -2485,13 +2488,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F66" s="18">
         <v>68800</v>
@@ -2508,13 +2511,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F67" s="18">
         <v>68800</v>
@@ -2531,13 +2534,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F68" s="18">
         <v>68800</v>
@@ -2554,13 +2557,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F69" s="18">
         <v>68800</v>
@@ -2577,13 +2580,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F70" s="18">
         <v>68800</v>
@@ -2600,13 +2603,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F71" s="18">
         <v>68800</v>
@@ -2623,13 +2626,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F72" s="18">
         <v>68800</v>
@@ -2646,13 +2649,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F73" s="18">
         <v>68800</v>
@@ -2669,13 +2672,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F74" s="18">
         <v>68800</v>
@@ -2692,13 +2695,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F75" s="18">
         <v>68800</v>
@@ -2715,13 +2718,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F76" s="18">
         <v>68800</v>
@@ -2738,13 +2741,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F77" s="18">
         <v>68800</v>
@@ -2761,13 +2764,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F78" s="18">
         <v>68800</v>
@@ -2784,13 +2787,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F79" s="18">
         <v>68800</v>
@@ -2807,13 +2810,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F80" s="18">
         <v>68800</v>
@@ -2830,13 +2833,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F81" s="18">
         <v>68800</v>
@@ -2853,13 +2856,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F82" s="18">
         <v>68800</v>
@@ -2876,13 +2879,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F83" s="18">
         <v>68800</v>
@@ -2899,13 +2902,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F84" s="18">
         <v>68800</v>
@@ -2922,13 +2925,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F85" s="18">
         <v>68800</v>
@@ -2945,13 +2948,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F86" s="18">
         <v>68800</v>
@@ -2968,13 +2971,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F87" s="18">
         <v>68800</v>
@@ -2991,13 +2994,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F88" s="18">
         <v>68800</v>
@@ -3014,13 +3017,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F89" s="18">
         <v>68800</v>
@@ -3037,13 +3040,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F90" s="18">
         <v>68800</v>
@@ -3060,13 +3063,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F91" s="18">
         <v>68800</v>
@@ -3083,13 +3086,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F92" s="18">
         <v>68800</v>
@@ -3106,13 +3109,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F93" s="18">
         <v>68800</v>
@@ -3129,13 +3132,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F94" s="18">
         <v>68800</v>
@@ -3152,13 +3155,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F95" s="18">
         <v>68800</v>
@@ -3175,13 +3178,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F96" s="18">
         <v>68800</v>
@@ -3198,13 +3201,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F97" s="18">
         <v>68800</v>
@@ -3221,13 +3224,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F98" s="18">
         <v>68800</v>
@@ -3244,13 +3247,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F99" s="18">
         <v>68800</v>
@@ -3267,13 +3270,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F100" s="18">
         <v>68800</v>
@@ -3290,13 +3293,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F101" s="18">
         <v>68800</v>
@@ -3313,13 +3316,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F102" s="18">
         <v>68800</v>
@@ -3336,13 +3339,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F103" s="18">
         <v>68800</v>
@@ -3359,13 +3362,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F104" s="18">
         <v>68800</v>
@@ -3382,13 +3385,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F105" s="18">
         <v>68800</v>
@@ -3405,13 +3408,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F106" s="18">
         <v>68800</v>
@@ -3428,13 +3431,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F107" s="18">
         <v>68800</v>
@@ -3451,13 +3454,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F108" s="18">
         <v>68800</v>
@@ -3474,13 +3477,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F109" s="18">
         <v>68800</v>
@@ -3497,13 +3500,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F110" s="18">
         <v>68800</v>
@@ -3520,13 +3523,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F111" s="18">
         <v>68800</v>
@@ -3543,13 +3546,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F112" s="18">
         <v>68800</v>
@@ -3566,13 +3569,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F113" s="18">
         <v>68800</v>
@@ -3589,13 +3592,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F114" s="18">
         <v>68800</v>
@@ -3612,13 +3615,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F115" s="18">
         <v>68800</v>
@@ -3635,13 +3638,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F116" s="18">
         <v>68800</v>
@@ -3658,13 +3661,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F117" s="18">
         <v>68800</v>
@@ -3681,13 +3684,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F118" s="18">
         <v>68800</v>
@@ -3704,13 +3707,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F119" s="18">
         <v>68800</v>
@@ -3727,13 +3730,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F120" s="18">
         <v>68800</v>
@@ -3750,13 +3753,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F121" s="18">
         <v>68800</v>
@@ -3773,13 +3776,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F122" s="18">
         <v>68800</v>
@@ -3796,13 +3799,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F123" s="18">
         <v>68800</v>
@@ -3819,13 +3822,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F124" s="18">
         <v>68800</v>
@@ -3842,13 +3845,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="F125" s="18">
         <v>68800</v>
@@ -3865,13 +3868,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="F126" s="18">
         <v>68800</v>
@@ -3888,13 +3891,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="F127" s="18">
         <v>68800</v>
@@ -3911,13 +3914,13 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="F128" s="18">
         <v>68800</v>
@@ -3934,13 +3937,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="F129" s="18">
         <v>68800</v>
@@ -3957,13 +3960,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="F130" s="18">
         <v>68800</v>
@@ -3976,42 +3979,54 @@
       <c r="J130" s="20"/>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B131" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D131" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E131" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F131" s="24">
-        <v>68800</v>
-      </c>
-      <c r="G131" s="24">
-        <v>1720000</v>
-      </c>
-      <c r="H131" s="25"/>
-      <c r="I131" s="25"/>
-      <c r="J131" s="26"/>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B136" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="C136" s="32"/>
-      <c r="H136" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
+      <c r="B131" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F131" s="18">
+        <v>68800</v>
+      </c>
+      <c r="G131" s="18">
+        <v>1720000</v>
+      </c>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="20"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B132" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E132" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F132" s="24">
+        <v>68800</v>
+      </c>
+      <c r="G132" s="24">
+        <v>1720000</v>
+      </c>
+      <c r="H132" s="25"/>
+      <c r="I132" s="25"/>
+      <c r="J132" s="26"/>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B137" s="32" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C137" s="32"/>
       <c r="H137" s="1" t="s">
@@ -4020,12 +4035,23 @@
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
     </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B138" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C138" s="32"/>
+      <c r="H138" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B138:C138"/>
     <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="H138:J138"/>
     <mergeCell ref="H137:J137"/>
-    <mergeCell ref="H136:J136"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
